--- a/biology/Zoologie/Eusthenodon/Eusthenodon.xlsx
+++ b/biology/Zoologie/Eusthenodon/Eusthenodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eusthenodon est un genre éteint de poissons à membres charnus (sarcoptérygiens) ayant vécu au cours du Dévonien supérieur (Frasnien et Famennien), il y a environ entre 383 et 359 Ma (millions d'années). Il appartient à la famille des Tristichopteridae, un clade qui s'est éteint à la fin du Dévonien et auquel appartient également le genre de grande taille Hyneria.
-Ses restes fossiles sont connus pour l'espèce type au Groenland[1], en Russie, en Afrique du sud et en Belgique, ces derniers dans la formation géologique d'Evieux d'âge Famennien supérieur[2].
-Une autre espèce au statut incertain, Eusthenodon gavini, a été décrite en 2000 par Z. Johanson et A. Ritchie[3].  
+Ses restes fossiles sont connus pour l'espèce type au Groenland, en Russie, en Afrique du sud et en Belgique, ces derniers dans la formation géologique d'Evieux d'âge Famennien supérieur.
+Une autre espèce au statut incertain, Eusthenodon gavini, a été décrite en 2000 par Z. Johanson et A. Ritchie.  
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eusthenodon mesurait environ 2,50 mètres de long. Il est considéré comme l'un des Tristichopteridae les plus évolués.
 </t>
